--- a/src/outputs/4-data_countries.xlsx
+++ b/src/outputs/4-data_countries.xlsx
@@ -441,7 +441,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
@@ -450,7 +450,7 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
         <v>23</v>
@@ -575,7 +575,7 @@
         <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -588,19 +588,19 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -719,13 +719,13 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>35</v>
       </c>
       <c r="G14" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -741,16 +741,16 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
         <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -763,19 +763,19 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -791,7 +791,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -800,7 +800,7 @@
         <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -869,13 +869,13 @@
         <v>24</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
@@ -950,7 +950,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -963,19 +963,19 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1013,7 +1013,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>24</v>
@@ -1022,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="n">
         <v>48</v>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
         <v>19</v>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
         <v>39</v>
@@ -1063,19 +1063,19 @@
         <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -1094,13 +1094,13 @@
         <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -1113,19 +1113,19 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
         <v>19</v>
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
         <v>35</v>
@@ -1244,13 +1244,13 @@
         <v>24</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F35" t="n">
         <v>37</v>
       </c>
       <c r="G35" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
@@ -1288,19 +1288,19 @@
         <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
         <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -1319,13 +1319,13 @@
         <v>18</v>
       </c>
       <c r="E38" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F38" t="n">
         <v>39</v>
       </c>
       <c r="G38" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -1366,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -1391,10 +1391,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" t="n">
         <v>37</v>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
         <v>19</v>
@@ -1422,7 +1422,7 @@
         <v>24</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="n">
         <v>45</v>
@@ -1466,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
         <v>21</v>
@@ -1475,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
         <v>19</v>
@@ -1522,7 +1522,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
@@ -1566,7 +1566,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
         <v>25</v>
@@ -1575,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -1619,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="E50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F50" t="n">
         <v>38</v>
       </c>
       <c r="G50" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -1641,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" t="n">
         <v>22</v>
@@ -1650,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
@@ -1669,13 +1669,13 @@
         <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
         <v>39</v>
       </c>
       <c r="G52" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
@@ -1813,19 +1813,19 @@
         <v>20</v>
       </c>
       <c r="C58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
         <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G58" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
@@ -1841,16 +1841,16 @@
         <v>18</v>
       </c>
       <c r="D59" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E59" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F59" t="n">
         <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
@@ -2056,82 +2056,82 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F68" t="n">
         <v>41</v>
       </c>
       <c r="G68" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ethiopia PDR</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" t="n">
         <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G69" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Ethiopia PDR</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F70" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G70" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2156,223 +2156,223 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>European Union</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E72" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F72" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G72" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E73" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F73" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G73" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C74" t="n">
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G74" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>21</v>
       </c>
       <c r="C75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E76" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F76" t="n">
         <v>37</v>
       </c>
       <c r="G76" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>19</v>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F77" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G77" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F78" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G78" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F79" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E80" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G80" t="n">
         <v>44</v>
@@ -2381,17 +2381,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E81" t="n">
         <v>25</v>
@@ -2400,92 +2400,92 @@
         <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>21</v>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E82" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n">
         <v>24</v>
       </c>
       <c r="F83" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B84" t="n">
+        <v>21</v>
+      </c>
+      <c r="C84" t="n">
         <v>19</v>
       </c>
-      <c r="C84" t="n">
-        <v>21</v>
-      </c>
       <c r="D84" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F84" t="n">
         <v>40</v>
       </c>
       <c r="G84" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C85" t="n">
         <v>21</v>
@@ -2497,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="F85" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
         <v>39</v>
@@ -2506,257 +2506,257 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F87" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
+        <v>40</v>
+      </c>
+      <c r="G88" t="n">
         <v>38</v>
-      </c>
-      <c r="G88" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
+        <v>18</v>
+      </c>
+      <c r="D89" t="n">
         <v>17</v>
       </c>
-      <c r="D89" t="n">
-        <v>19</v>
-      </c>
       <c r="E89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F89" t="n">
         <v>38</v>
       </c>
       <c r="G89" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D90" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F91" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G91" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F92" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
         <v>25</v>
       </c>
       <c r="F93" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G93" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94" t="n">
         <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G94" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2769,235 +2769,235 @@
         <v>24</v>
       </c>
       <c r="E96" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F96" t="n">
         <v>38</v>
       </c>
       <c r="G96" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>21</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
         <v>24</v>
       </c>
       <c r="E97" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G97" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>21</v>
       </c>
       <c r="C98" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E98" t="n">
         <v>22</v>
       </c>
       <c r="F98" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" t="n">
         <v>18</v>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F99" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
         <v>24</v>
       </c>
       <c r="F100" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C101" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E101" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F101" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G101" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C102" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E102" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F102" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
         <v>24</v>
       </c>
       <c r="F103" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G103" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E104" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F104" t="n">
         <v>38</v>
       </c>
       <c r="G104" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G105" t="n">
         <v>44</v>
@@ -3006,157 +3006,157 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Land Locked Developing Countries</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E106" t="n">
         <v>25</v>
       </c>
       <c r="F106" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>Land Locked Developing Countries</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F107" t="n">
+        <v>42</v>
+      </c>
+      <c r="G107" t="n">
         <v>40</v>
-      </c>
-      <c r="G107" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
+        <v>20</v>
+      </c>
+      <c r="D108" t="n">
         <v>16</v>
       </c>
-      <c r="D108" t="n">
-        <v>20</v>
-      </c>
       <c r="E108" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F108" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G108" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Least Developed Countries</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E109" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F109" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G109" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Least Developed Countries</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G110" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E111" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F111" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3166,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="D112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" t="n">
         <v>25</v>
@@ -3175,123 +3175,123 @@
         <v>39</v>
       </c>
       <c r="G112" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C113" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F113" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G113" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Low Income Food Deficit Countries</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E114" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F114" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G114" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Low Income Food Deficit Countries</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D115" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F115" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G115" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E116" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F116" t="n">
+        <v>34</v>
+      </c>
+      <c r="G116" t="n">
         <v>41</v>
-      </c>
-      <c r="G116" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C117" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E117" t="n">
         <v>25</v>
@@ -3300,320 +3300,320 @@
         <v>40</v>
       </c>
       <c r="G117" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C118" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E119" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F119" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C120" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F120" t="n">
+        <v>37</v>
+      </c>
+      <c r="G120" t="n">
         <v>41</v>
-      </c>
-      <c r="G120" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D121" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G121" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B122" t="n">
+        <v>21</v>
+      </c>
+      <c r="C122" t="n">
         <v>19</v>
       </c>
-      <c r="C122" t="n">
-        <v>21</v>
-      </c>
       <c r="D122" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E122" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F122" t="n">
         <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C123" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E123" t="n">
         <v>24</v>
       </c>
       <c r="F123" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G123" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Melanesia</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>21</v>
       </c>
       <c r="C124" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E124" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F124" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G124" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Melanesia</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>21</v>
       </c>
       <c r="C125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Micronesia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E126" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F126" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G126" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Middle Africa</t>
+          <t>Micronesia</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>20</v>
       </c>
       <c r="C127" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E127" t="n">
         <v>24</v>
       </c>
       <c r="F127" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G127" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Middle Africa</t>
         </is>
       </c>
       <c r="B128" t="n">
+        <v>20</v>
+      </c>
+      <c r="C128" t="n">
+        <v>20</v>
+      </c>
+      <c r="D128" t="n">
         <v>17</v>
       </c>
-      <c r="C128" t="n">
-        <v>20</v>
-      </c>
-      <c r="D128" t="n">
-        <v>14</v>
-      </c>
       <c r="E128" t="n">
         <v>25</v>
       </c>
       <c r="F128" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G128" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C129" t="n">
         <v>16</v>
       </c>
       <c r="D129" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E129" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F129" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G129" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D130" t="n">
         <v>24</v>
@@ -3622,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="F130" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="n">
         <v>48</v>
@@ -3631,42 +3631,42 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C131" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E131" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F131" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E132" t="n">
         <v>25</v>
@@ -3675,29 +3675,29 @@
         <v>39</v>
       </c>
       <c r="G132" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C133" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D133" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F133" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="n">
         <v>42</v>
@@ -3706,32 +3706,32 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E134" t="n">
         <v>24</v>
       </c>
       <c r="F134" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G134" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Net Food Importing Developing Countries</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3741,113 +3741,113 @@
         <v>21</v>
       </c>
       <c r="D135" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F135" t="n">
         <v>42</v>
       </c>
       <c r="G135" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Net Food Importing Developing Countries</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>21</v>
       </c>
       <c r="C136" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D136" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E136" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F136" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G136" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Netherlands Antilles (former)</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C137" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E137" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F137" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G137" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Netherlands Antilles (former)</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C138" t="n">
         <v>18</v>
       </c>
       <c r="D138" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E138" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F138" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G138" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>21</v>
       </c>
       <c r="C139" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D139" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E139" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F139" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G139" t="n">
         <v>40</v>
@@ -3856,332 +3856,332 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C140" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E140" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F140" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C141" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F141" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G141" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C142" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E142" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F142" t="n">
         <v>41</v>
       </c>
       <c r="G142" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Northern Africa</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C143" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D143" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F143" t="n">
+        <v>40</v>
+      </c>
+      <c r="G143" t="n">
         <v>41</v>
-      </c>
-      <c r="G143" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Northern America</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>21</v>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D144" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E144" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F144" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G144" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Northern Europe</t>
+          <t>Northern Africa</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>21</v>
       </c>
       <c r="C145" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E145" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F145" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G145" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Northern America</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>21</v>
       </c>
       <c r="C146" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D146" t="n">
         <v>24</v>
       </c>
       <c r="E146" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F146" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G146" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Northern Europe</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>21</v>
       </c>
       <c r="C147" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E147" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F147" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G147" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C148" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D148" t="n">
         <v>24</v>
       </c>
       <c r="E148" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F148" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G148" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C149" t="n">
+        <v>12</v>
+      </c>
+      <c r="D149" t="n">
         <v>23</v>
       </c>
-      <c r="D149" t="n">
-        <v>17</v>
-      </c>
       <c r="E149" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F149" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E150" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F150" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G150" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D151" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E151" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F151" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G151" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D152" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E152" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F152" t="n">
+        <v>38</v>
+      </c>
+      <c r="G152" t="n">
         <v>41</v>
-      </c>
-      <c r="G152" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4191,7 +4191,7 @@
         <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
         <v>25</v>
@@ -4200,395 +4200,395 @@
         <v>40</v>
       </c>
       <c r="G153" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>21</v>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D154" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E154" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F154" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G154" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Polynesia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C155" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E155" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F155" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G155" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>21</v>
       </c>
       <c r="C156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E156" t="n">
         <v>21</v>
       </c>
       <c r="F156" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>Polynesia</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D157" t="n">
         <v>21</v>
       </c>
       <c r="E157" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F157" t="n">
         <v>37</v>
       </c>
       <c r="G157" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Republic of Moldova</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C158" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D158" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E158" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F158" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G158" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E159" t="n">
         <v>22</v>
       </c>
       <c r="F159" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Republic of Moldova</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C160" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E160" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F160" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G160" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B161" t="n">
+        <v>21</v>
+      </c>
+      <c r="C161" t="n">
+        <v>18</v>
+      </c>
+      <c r="D161" t="n">
         <v>23</v>
       </c>
-      <c r="C161" t="n">
-        <v>21</v>
-      </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>22</v>
       </c>
-      <c r="E161" t="n">
-        <v>25</v>
-      </c>
       <c r="F161" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G161" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C162" t="n">
         <v>16</v>
       </c>
       <c r="D162" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E162" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F162" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G162" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C163" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D163" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E163" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F163" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G163" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C164" t="n">
         <v>16</v>
       </c>
       <c r="D164" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164" t="n">
         <v>23</v>
       </c>
       <c r="F164" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G164" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>20</v>
       </c>
       <c r="C165" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F165" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G165" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C166" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D166" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E166" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F166" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G166" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C167" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E167" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F167" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G167" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B168" t="n">
+        <v>22</v>
+      </c>
+      <c r="C168" t="n">
+        <v>20</v>
+      </c>
+      <c r="D168" t="n">
         <v>19</v>
       </c>
-      <c r="C168" t="n">
-        <v>22</v>
-      </c>
-      <c r="D168" t="n">
-        <v>14</v>
-      </c>
       <c r="E168" t="n">
         <v>25</v>
       </c>
       <c r="F168" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G168" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>21</v>
       </c>
       <c r="C169" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D169" t="n">
         <v>21</v>
@@ -4597,7 +4597,7 @@
         <v>24</v>
       </c>
       <c r="F169" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G169" t="n">
         <v>45</v>
@@ -4606,73 +4606,73 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Serbia and Montenegro</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D170" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E170" t="n">
         <v>25</v>
       </c>
       <c r="F170" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G170" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B171" t="n">
+        <v>21</v>
+      </c>
+      <c r="C171" t="n">
         <v>19</v>
       </c>
-      <c r="C171" t="n">
-        <v>21</v>
-      </c>
       <c r="D171" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E171" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F171" t="n">
         <v>40</v>
       </c>
       <c r="G171" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Serbia and Montenegro</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C172" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E172" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F172" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G172" t="n">
         <v>35</v>
@@ -4681,461 +4681,461 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C173" t="n">
+        <v>21</v>
+      </c>
+      <c r="D173" t="n">
         <v>14</v>
       </c>
-      <c r="D173" t="n">
-        <v>24</v>
-      </c>
       <c r="E173" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F173" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G173" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Small Island Developing States</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>21</v>
       </c>
       <c r="C174" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D174" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F174" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G174" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C175" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D175" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E175" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F175" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G175" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Small Island Developing States</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C176" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E176" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F176" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G176" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C177" t="n">
+        <v>20</v>
+      </c>
+      <c r="D177" t="n">
         <v>19</v>
       </c>
-      <c r="D177" t="n">
-        <v>18</v>
-      </c>
       <c r="E177" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F177" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>South-Eastern Asia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>20</v>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F178" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G178" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Southern Africa</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C179" t="n">
         <v>18</v>
       </c>
       <c r="D179" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F179" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G179" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Southern Asia</t>
+          <t>South-Eastern Asia</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C180" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E180" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F180" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G180" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Southern Europe</t>
+          <t>Southern Africa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D181" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E181" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F181" t="n">
+        <v>38</v>
+      </c>
+      <c r="G181" t="n">
         <v>37</v>
-      </c>
-      <c r="G181" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Southern Asia</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>21</v>
       </c>
       <c r="C182" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D182" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E182" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F182" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G182" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Southern Europe</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C183" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D183" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E183" t="n">
         <v>22</v>
       </c>
       <c r="F183" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G183" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>21</v>
       </c>
       <c r="C184" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D184" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E184" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F184" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G184" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sudan (former)</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C185" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D185" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E185" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F185" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G185" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>21</v>
       </c>
       <c r="C186" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E186" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F186" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G186" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Sudan (former)</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C187" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D187" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E187" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F187" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G187" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>21</v>
       </c>
       <c r="C188" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D188" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E188" t="n">
         <v>22</v>
       </c>
       <c r="F188" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G188" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>21</v>
       </c>
       <c r="C189" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D189" t="n">
         <v>23</v>
       </c>
       <c r="E189" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F189" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G189" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C190" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D190" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E190" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F190" t="n">
         <v>34</v>
       </c>
       <c r="G190" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C191" t="n">
         <v>17</v>
@@ -5144,38 +5144,38 @@
         <v>17</v>
       </c>
       <c r="E191" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F191" t="n">
+        <v>34</v>
+      </c>
+      <c r="G191" t="n">
         <v>37</v>
-      </c>
-      <c r="G191" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The former Yugoslav Republic of Macedonia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C192" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D192" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E192" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F192" t="n">
         <v>39</v>
       </c>
       <c r="G192" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193">
@@ -5235,10 +5235,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C195" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D195" t="n">
         <v>18</v>
@@ -5247,7 +5247,7 @@
         <v>22</v>
       </c>
       <c r="F195" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G195" t="n">
         <v>40</v>
@@ -5385,22 +5385,22 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C201" t="n">
         <v>17</v>
       </c>
       <c r="D201" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E201" t="n">
         <v>23</v>
       </c>
       <c r="F201" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G201" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202">
@@ -5416,7 +5416,7 @@
         <v>16</v>
       </c>
       <c r="D202" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E202" t="n">
         <v>19</v>
@@ -5425,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="G202" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203">
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C204" t="n">
         <v>22</v>
@@ -5472,7 +5472,7 @@
         <v>24</v>
       </c>
       <c r="F204" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G204" t="n">
         <v>42</v>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C208" t="n">
         <v>20</v>
@@ -5572,7 +5572,7 @@
         <v>25</v>
       </c>
       <c r="F208" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G208" t="n">
         <v>49</v>
@@ -5588,7 +5588,7 @@
         <v>21</v>
       </c>
       <c r="C209" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D209" t="n">
         <v>17</v>
@@ -5597,7 +5597,7 @@
         <v>23</v>
       </c>
       <c r="F209" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G209" t="n">
         <v>40</v>
@@ -5816,7 +5816,7 @@
         <v>21</v>
       </c>
       <c r="D218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E218" t="n">
         <v>25</v>
@@ -5825,7 +5825,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
